--- a/NZ Windows/36768/struct.xlsx
+++ b/NZ Windows/36768/struct.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\William\Desktop\CONQA\_Git\CONQA\NZ Windows\36768\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DF0D152-8DDC-4B2B-8B50-C61D23D43A1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C81B312-F7ED-4CC8-A152-2C017C13E915}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8910" yWindow="2190" windowWidth="26775" windowHeight="17745" xr2:uid="{AC5113EB-C6D5-4B97-9170-BBD284AC2BEC}"/>
+    <workbookView xWindow="11325" yWindow="3030" windowWidth="26775" windowHeight="17745" xr2:uid="{AC5113EB-C6D5-4B97-9170-BBD284AC2BEC}"/>
   </bookViews>
   <sheets>
     <sheet name="struct" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1389" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1389" uniqueCount="112">
   <si>
     <t>resource</t>
   </si>
@@ -353,6 +353,12 @@
   </si>
   <si>
     <t>checklist</t>
+  </si>
+  <si>
+    <t>Metro-Resi - Install Checklist (Stage 1-3)</t>
+  </si>
+  <si>
+    <t>Pre-Install Checklist</t>
   </si>
 </sst>
 </file>
@@ -521,7 +527,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="38">
+  <fills count="39">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -731,6 +737,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="10">
     <border>
@@ -892,7 +904,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -918,6 +930,7 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="37" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="19" fillId="38" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1295,13 +1308,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15E815DE-B877-4AFA-B9B2-ED8E95723021}">
   <dimension ref="A1:M489"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="42.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
@@ -1392,7 +1403,7 @@
     </row>
     <row r="4" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>15</v>
+        <v>111</v>
       </c>
       <c r="B4" t="s">
         <v>109</v>
@@ -1405,8 +1416,8 @@
       <c r="H4" s="2"/>
     </row>
     <row r="5" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="6" t="s">
-        <v>17</v>
+      <c r="A5" s="15" t="s">
+        <v>110</v>
       </c>
       <c r="B5" t="s">
         <v>109</v>
@@ -1481,7 +1492,7 @@
     </row>
     <row r="10" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>15</v>
+        <v>111</v>
       </c>
       <c r="B10" t="s">
         <v>109</v>
@@ -1494,8 +1505,8 @@
       <c r="H10" s="2"/>
     </row>
     <row r="11" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="6" t="s">
-        <v>17</v>
+      <c r="A11" s="15" t="s">
+        <v>110</v>
       </c>
       <c r="B11" t="s">
         <v>109</v>
@@ -1570,7 +1581,7 @@
     </row>
     <row r="16" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
-        <v>15</v>
+        <v>111</v>
       </c>
       <c r="B16" t="s">
         <v>109</v>
@@ -1583,8 +1594,8 @@
       <c r="H16" s="2"/>
     </row>
     <row r="17" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="6" t="s">
-        <v>17</v>
+      <c r="A17" s="15" t="s">
+        <v>110</v>
       </c>
       <c r="B17" t="s">
         <v>109</v>
@@ -1659,7 +1670,7 @@
     </row>
     <row r="22" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
-        <v>15</v>
+        <v>111</v>
       </c>
       <c r="B22" t="s">
         <v>109</v>
@@ -1672,8 +1683,8 @@
       <c r="H22" s="2"/>
     </row>
     <row r="23" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A23" s="6" t="s">
-        <v>17</v>
+      <c r="A23" s="15" t="s">
+        <v>110</v>
       </c>
       <c r="B23" t="s">
         <v>109</v>
@@ -1748,7 +1759,7 @@
     </row>
     <row r="28" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
-        <v>15</v>
+        <v>111</v>
       </c>
       <c r="B28" t="s">
         <v>109</v>
@@ -1761,8 +1772,8 @@
       <c r="H28" s="2"/>
     </row>
     <row r="29" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A29" s="6" t="s">
-        <v>17</v>
+      <c r="A29" s="15" t="s">
+        <v>110</v>
       </c>
       <c r="B29" t="s">
         <v>109</v>
@@ -1837,7 +1848,7 @@
     </row>
     <row r="34" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
-        <v>15</v>
+        <v>111</v>
       </c>
       <c r="B34" t="s">
         <v>109</v>
@@ -1850,8 +1861,8 @@
       <c r="H34" s="2"/>
     </row>
     <row r="35" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A35" s="6" t="s">
-        <v>17</v>
+      <c r="A35" s="15" t="s">
+        <v>110</v>
       </c>
       <c r="B35" t="s">
         <v>109</v>
@@ -1926,7 +1937,7 @@
     </row>
     <row r="40" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A40" s="4" t="s">
-        <v>15</v>
+        <v>111</v>
       </c>
       <c r="B40" t="s">
         <v>109</v>
@@ -1939,8 +1950,8 @@
       <c r="H40" s="2"/>
     </row>
     <row r="41" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A41" s="6" t="s">
-        <v>17</v>
+      <c r="A41" s="15" t="s">
+        <v>110</v>
       </c>
       <c r="B41" t="s">
         <v>109</v>
@@ -2015,7 +2026,7 @@
     </row>
     <row r="46" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A46" s="4" t="s">
-        <v>15</v>
+        <v>111</v>
       </c>
       <c r="B46" t="s">
         <v>109</v>
@@ -2028,8 +2039,8 @@
       <c r="H46" s="2"/>
     </row>
     <row r="47" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A47" s="6" t="s">
-        <v>17</v>
+      <c r="A47" s="15" t="s">
+        <v>110</v>
       </c>
       <c r="B47" t="s">
         <v>109</v>
@@ -2104,7 +2115,7 @@
     </row>
     <row r="52" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A52" s="4" t="s">
-        <v>15</v>
+        <v>111</v>
       </c>
       <c r="B52" t="s">
         <v>109</v>
@@ -2117,8 +2128,8 @@
       <c r="H52" s="2"/>
     </row>
     <row r="53" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A53" s="6" t="s">
-        <v>17</v>
+      <c r="A53" s="15" t="s">
+        <v>110</v>
       </c>
       <c r="B53" t="s">
         <v>109</v>
@@ -2193,7 +2204,7 @@
     </row>
     <row r="58" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A58" s="4" t="s">
-        <v>15</v>
+        <v>111</v>
       </c>
       <c r="B58" t="s">
         <v>109</v>
@@ -2206,8 +2217,8 @@
       <c r="H58" s="2"/>
     </row>
     <row r="59" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A59" s="6" t="s">
-        <v>17</v>
+      <c r="A59" s="15" t="s">
+        <v>110</v>
       </c>
       <c r="B59" t="s">
         <v>109</v>
@@ -2301,7 +2312,7 @@
     </row>
     <row r="65" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A65" s="4" t="s">
-        <v>15</v>
+        <v>111</v>
       </c>
       <c r="B65" t="s">
         <v>109</v>
@@ -2314,8 +2325,8 @@
       <c r="H65" s="2"/>
     </row>
     <row r="66" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A66" s="6" t="s">
-        <v>17</v>
+      <c r="A66" s="15" t="s">
+        <v>110</v>
       </c>
       <c r="B66" t="s">
         <v>109</v>
@@ -2390,7 +2401,7 @@
     </row>
     <row r="71" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A71" s="4" t="s">
-        <v>15</v>
+        <v>111</v>
       </c>
       <c r="B71" t="s">
         <v>109</v>
@@ -2403,8 +2414,8 @@
       <c r="H71" s="2"/>
     </row>
     <row r="72" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A72" s="6" t="s">
-        <v>17</v>
+      <c r="A72" s="15" t="s">
+        <v>110</v>
       </c>
       <c r="B72" t="s">
         <v>109</v>
@@ -2479,7 +2490,7 @@
     </row>
     <row r="77" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A77" s="4" t="s">
-        <v>15</v>
+        <v>111</v>
       </c>
       <c r="B77" t="s">
         <v>109</v>
@@ -2492,8 +2503,8 @@
       <c r="H77" s="2"/>
     </row>
     <row r="78" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A78" s="6" t="s">
-        <v>17</v>
+      <c r="A78" s="15" t="s">
+        <v>110</v>
       </c>
       <c r="B78" t="s">
         <v>109</v>
@@ -2568,7 +2579,7 @@
     </row>
     <row r="83" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A83" s="4" t="s">
-        <v>15</v>
+        <v>111</v>
       </c>
       <c r="B83" t="s">
         <v>109</v>
@@ -2581,8 +2592,8 @@
       <c r="H83" s="2"/>
     </row>
     <row r="84" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A84" s="6" t="s">
-        <v>17</v>
+      <c r="A84" s="15" t="s">
+        <v>110</v>
       </c>
       <c r="B84" t="s">
         <v>109</v>
@@ -2657,7 +2668,7 @@
     </row>
     <row r="89" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A89" s="4" t="s">
-        <v>15</v>
+        <v>111</v>
       </c>
       <c r="B89" t="s">
         <v>109</v>
@@ -2670,8 +2681,8 @@
       <c r="H89" s="2"/>
     </row>
     <row r="90" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A90" s="6" t="s">
-        <v>17</v>
+      <c r="A90" s="15" t="s">
+        <v>110</v>
       </c>
       <c r="B90" t="s">
         <v>109</v>
@@ -2746,7 +2757,7 @@
     </row>
     <row r="95" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A95" s="4" t="s">
-        <v>15</v>
+        <v>111</v>
       </c>
       <c r="B95" t="s">
         <v>109</v>
@@ -2759,8 +2770,8 @@
       <c r="H95" s="2"/>
     </row>
     <row r="96" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A96" s="6" t="s">
-        <v>17</v>
+      <c r="A96" s="15" t="s">
+        <v>110</v>
       </c>
       <c r="B96" t="s">
         <v>109</v>
@@ -2835,7 +2846,7 @@
     </row>
     <row r="101" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A101" s="4" t="s">
-        <v>15</v>
+        <v>111</v>
       </c>
       <c r="B101" t="s">
         <v>109</v>
@@ -2848,8 +2859,8 @@
       <c r="H101" s="2"/>
     </row>
     <row r="102" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A102" s="6" t="s">
-        <v>17</v>
+      <c r="A102" s="15" t="s">
+        <v>110</v>
       </c>
       <c r="B102" t="s">
         <v>109</v>
@@ -2924,7 +2935,7 @@
     </row>
     <row r="107" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A107" s="4" t="s">
-        <v>15</v>
+        <v>111</v>
       </c>
       <c r="B107" t="s">
         <v>109</v>
@@ -2937,8 +2948,8 @@
       <c r="H107" s="2"/>
     </row>
     <row r="108" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A108" s="6" t="s">
-        <v>17</v>
+      <c r="A108" s="15" t="s">
+        <v>110</v>
       </c>
       <c r="B108" t="s">
         <v>109</v>
@@ -3013,7 +3024,7 @@
     </row>
     <row r="113" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A113" s="4" t="s">
-        <v>15</v>
+        <v>111</v>
       </c>
       <c r="B113" t="s">
         <v>109</v>
@@ -3026,8 +3037,8 @@
       <c r="H113" s="2"/>
     </row>
     <row r="114" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A114" s="6" t="s">
-        <v>17</v>
+      <c r="A114" s="15" t="s">
+        <v>110</v>
       </c>
       <c r="B114" t="s">
         <v>109</v>
@@ -3102,7 +3113,7 @@
     </row>
     <row r="119" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A119" s="4" t="s">
-        <v>15</v>
+        <v>111</v>
       </c>
       <c r="B119" t="s">
         <v>109</v>
@@ -3115,8 +3126,8 @@
       <c r="H119" s="2"/>
     </row>
     <row r="120" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A120" s="6" t="s">
-        <v>17</v>
+      <c r="A120" s="15" t="s">
+        <v>110</v>
       </c>
       <c r="B120" t="s">
         <v>109</v>
@@ -3210,7 +3221,7 @@
     </row>
     <row r="126" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A126" s="4" t="s">
-        <v>15</v>
+        <v>111</v>
       </c>
       <c r="B126" t="s">
         <v>109</v>
@@ -3223,8 +3234,8 @@
       <c r="H126" s="2"/>
     </row>
     <row r="127" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A127" s="6" t="s">
-        <v>17</v>
+      <c r="A127" s="15" t="s">
+        <v>110</v>
       </c>
       <c r="B127" t="s">
         <v>109</v>
@@ -3299,7 +3310,7 @@
     </row>
     <row r="132" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A132" s="4" t="s">
-        <v>15</v>
+        <v>111</v>
       </c>
       <c r="B132" t="s">
         <v>109</v>
@@ -3312,8 +3323,8 @@
       <c r="H132" s="2"/>
     </row>
     <row r="133" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A133" s="6" t="s">
-        <v>17</v>
+      <c r="A133" s="15" t="s">
+        <v>110</v>
       </c>
       <c r="B133" t="s">
         <v>109</v>
@@ -3388,7 +3399,7 @@
     </row>
     <row r="138" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A138" s="4" t="s">
-        <v>15</v>
+        <v>111</v>
       </c>
       <c r="B138" t="s">
         <v>109</v>
@@ -3401,8 +3412,8 @@
       <c r="H138" s="2"/>
     </row>
     <row r="139" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A139" s="6" t="s">
-        <v>17</v>
+      <c r="A139" s="15" t="s">
+        <v>110</v>
       </c>
       <c r="B139" t="s">
         <v>109</v>
@@ -3477,7 +3488,7 @@
     </row>
     <row r="144" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A144" s="4" t="s">
-        <v>15</v>
+        <v>111</v>
       </c>
       <c r="B144" t="s">
         <v>109</v>
@@ -3490,8 +3501,8 @@
       <c r="H144" s="2"/>
     </row>
     <row r="145" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A145" s="6" t="s">
-        <v>17</v>
+      <c r="A145" s="15" t="s">
+        <v>110</v>
       </c>
       <c r="B145" t="s">
         <v>109</v>
@@ -3566,7 +3577,7 @@
     </row>
     <row r="150" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A150" s="4" t="s">
-        <v>15</v>
+        <v>111</v>
       </c>
       <c r="B150" t="s">
         <v>109</v>
@@ -3579,8 +3590,8 @@
       <c r="H150" s="2"/>
     </row>
     <row r="151" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A151" s="6" t="s">
-        <v>17</v>
+      <c r="A151" s="15" t="s">
+        <v>110</v>
       </c>
       <c r="B151" t="s">
         <v>109</v>
@@ -3655,7 +3666,7 @@
     </row>
     <row r="156" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A156" s="4" t="s">
-        <v>15</v>
+        <v>111</v>
       </c>
       <c r="B156" t="s">
         <v>109</v>
@@ -3668,8 +3679,8 @@
       <c r="H156" s="2"/>
     </row>
     <row r="157" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A157" s="6" t="s">
-        <v>17</v>
+      <c r="A157" s="15" t="s">
+        <v>110</v>
       </c>
       <c r="B157" t="s">
         <v>109</v>
@@ -3744,7 +3755,7 @@
     </row>
     <row r="162" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A162" s="4" t="s">
-        <v>15</v>
+        <v>111</v>
       </c>
       <c r="B162" t="s">
         <v>109</v>
@@ -3757,8 +3768,8 @@
       <c r="H162" s="2"/>
     </row>
     <row r="163" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A163" s="6" t="s">
-        <v>17</v>
+      <c r="A163" s="15" t="s">
+        <v>110</v>
       </c>
       <c r="B163" t="s">
         <v>109</v>
@@ -3833,7 +3844,7 @@
     </row>
     <row r="168" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A168" s="4" t="s">
-        <v>15</v>
+        <v>111</v>
       </c>
       <c r="B168" t="s">
         <v>109</v>
@@ -3846,8 +3857,8 @@
       <c r="H168" s="2"/>
     </row>
     <row r="169" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A169" s="6" t="s">
-        <v>17</v>
+      <c r="A169" s="15" t="s">
+        <v>110</v>
       </c>
       <c r="B169" t="s">
         <v>109</v>
@@ -3922,7 +3933,7 @@
     </row>
     <row r="174" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A174" s="4" t="s">
-        <v>15</v>
+        <v>111</v>
       </c>
       <c r="B174" t="s">
         <v>109</v>
@@ -3935,8 +3946,8 @@
       <c r="H174" s="2"/>
     </row>
     <row r="175" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A175" s="6" t="s">
-        <v>17</v>
+      <c r="A175" s="15" t="s">
+        <v>110</v>
       </c>
       <c r="B175" t="s">
         <v>109</v>
@@ -4011,7 +4022,7 @@
     </row>
     <row r="180" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A180" s="4" t="s">
-        <v>15</v>
+        <v>111</v>
       </c>
       <c r="B180" t="s">
         <v>109</v>
@@ -4024,8 +4035,8 @@
       <c r="H180" s="2"/>
     </row>
     <row r="181" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A181" s="6" t="s">
-        <v>17</v>
+      <c r="A181" s="15" t="s">
+        <v>110</v>
       </c>
       <c r="B181" t="s">
         <v>109</v>
@@ -4119,7 +4130,7 @@
     </row>
     <row r="187" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A187" s="4" t="s">
-        <v>15</v>
+        <v>111</v>
       </c>
       <c r="B187" t="s">
         <v>109</v>
@@ -4208,7 +4219,7 @@
     </row>
     <row r="193" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A193" s="4" t="s">
-        <v>15</v>
+        <v>111</v>
       </c>
       <c r="B193" t="s">
         <v>109</v>
@@ -4297,7 +4308,7 @@
     </row>
     <row r="199" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A199" s="4" t="s">
-        <v>15</v>
+        <v>111</v>
       </c>
       <c r="B199" t="s">
         <v>109</v>
@@ -4386,7 +4397,7 @@
     </row>
     <row r="205" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A205" s="4" t="s">
-        <v>15</v>
+        <v>111</v>
       </c>
       <c r="B205" t="s">
         <v>109</v>
@@ -4475,7 +4486,7 @@
     </row>
     <row r="211" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A211" s="4" t="s">
-        <v>15</v>
+        <v>111</v>
       </c>
       <c r="B211" t="s">
         <v>109</v>
@@ -4564,7 +4575,7 @@
     </row>
     <row r="217" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A217" s="4" t="s">
-        <v>15</v>
+        <v>111</v>
       </c>
       <c r="B217" t="s">
         <v>109</v>
@@ -4653,7 +4664,7 @@
     </row>
     <row r="223" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A223" s="4" t="s">
-        <v>15</v>
+        <v>111</v>
       </c>
       <c r="B223" t="s">
         <v>109</v>
@@ -4742,7 +4753,7 @@
     </row>
     <row r="229" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A229" s="4" t="s">
-        <v>15</v>
+        <v>111</v>
       </c>
       <c r="B229" t="s">
         <v>109</v>
@@ -4831,7 +4842,7 @@
     </row>
     <row r="235" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A235" s="4" t="s">
-        <v>15</v>
+        <v>111</v>
       </c>
       <c r="B235" t="s">
         <v>109</v>
@@ -4920,7 +4931,7 @@
     </row>
     <row r="241" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A241" s="4" t="s">
-        <v>15</v>
+        <v>111</v>
       </c>
       <c r="B241" t="s">
         <v>109</v>
@@ -5028,7 +5039,7 @@
     </row>
     <row r="248" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A248" s="4" t="s">
-        <v>15</v>
+        <v>111</v>
       </c>
       <c r="B248" t="s">
         <v>109</v>
@@ -5117,7 +5128,7 @@
     </row>
     <row r="254" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A254" s="4" t="s">
-        <v>15</v>
+        <v>111</v>
       </c>
       <c r="B254" t="s">
         <v>109</v>
@@ -5206,7 +5217,7 @@
     </row>
     <row r="260" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A260" s="4" t="s">
-        <v>15</v>
+        <v>111</v>
       </c>
       <c r="B260" t="s">
         <v>109</v>
@@ -5295,7 +5306,7 @@
     </row>
     <row r="266" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A266" s="4" t="s">
-        <v>15</v>
+        <v>111</v>
       </c>
       <c r="B266" t="s">
         <v>109</v>
@@ -5384,7 +5395,7 @@
     </row>
     <row r="272" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A272" s="4" t="s">
-        <v>15</v>
+        <v>111</v>
       </c>
       <c r="B272" t="s">
         <v>109</v>
@@ -5473,7 +5484,7 @@
     </row>
     <row r="278" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A278" s="4" t="s">
-        <v>15</v>
+        <v>111</v>
       </c>
       <c r="B278" t="s">
         <v>109</v>
@@ -5562,7 +5573,7 @@
     </row>
     <row r="284" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A284" s="4" t="s">
-        <v>15</v>
+        <v>111</v>
       </c>
       <c r="B284" t="s">
         <v>109</v>
@@ -5651,7 +5662,7 @@
     </row>
     <row r="290" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A290" s="4" t="s">
-        <v>15</v>
+        <v>111</v>
       </c>
       <c r="B290" t="s">
         <v>109</v>
@@ -5740,7 +5751,7 @@
     </row>
     <row r="296" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A296" s="4" t="s">
-        <v>15</v>
+        <v>111</v>
       </c>
       <c r="B296" t="s">
         <v>109</v>
@@ -5829,7 +5840,7 @@
     </row>
     <row r="302" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A302" s="4" t="s">
-        <v>15</v>
+        <v>111</v>
       </c>
       <c r="B302" t="s">
         <v>109</v>
@@ -5937,7 +5948,7 @@
     </row>
     <row r="309" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A309" s="4" t="s">
-        <v>15</v>
+        <v>111</v>
       </c>
       <c r="B309" t="s">
         <v>109</v>
@@ -6026,7 +6037,7 @@
     </row>
     <row r="315" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A315" s="4" t="s">
-        <v>15</v>
+        <v>111</v>
       </c>
       <c r="B315" t="s">
         <v>109</v>
@@ -6115,7 +6126,7 @@
     </row>
     <row r="321" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A321" s="4" t="s">
-        <v>15</v>
+        <v>111</v>
       </c>
       <c r="B321" t="s">
         <v>109</v>
@@ -6204,7 +6215,7 @@
     </row>
     <row r="327" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A327" s="4" t="s">
-        <v>15</v>
+        <v>111</v>
       </c>
       <c r="B327" t="s">
         <v>109</v>
@@ -6293,7 +6304,7 @@
     </row>
     <row r="333" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A333" s="4" t="s">
-        <v>15</v>
+        <v>111</v>
       </c>
       <c r="B333" t="s">
         <v>109</v>
@@ -6382,7 +6393,7 @@
     </row>
     <row r="339" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A339" s="4" t="s">
-        <v>15</v>
+        <v>111</v>
       </c>
       <c r="B339" t="s">
         <v>109</v>
@@ -6471,7 +6482,7 @@
     </row>
     <row r="345" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A345" s="4" t="s">
-        <v>15</v>
+        <v>111</v>
       </c>
       <c r="B345" t="s">
         <v>109</v>
@@ -6560,7 +6571,7 @@
     </row>
     <row r="351" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A351" s="4" t="s">
-        <v>15</v>
+        <v>111</v>
       </c>
       <c r="B351" t="s">
         <v>109</v>
@@ -6649,7 +6660,7 @@
     </row>
     <row r="357" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A357" s="4" t="s">
-        <v>15</v>
+        <v>111</v>
       </c>
       <c r="B357" t="s">
         <v>109</v>
@@ -6738,7 +6749,7 @@
     </row>
     <row r="363" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A363" s="4" t="s">
-        <v>15</v>
+        <v>111</v>
       </c>
       <c r="B363" t="s">
         <v>109</v>
@@ -6846,7 +6857,7 @@
     </row>
     <row r="370" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A370" s="4" t="s">
-        <v>15</v>
+        <v>111</v>
       </c>
       <c r="B370" t="s">
         <v>109</v>
@@ -6935,7 +6946,7 @@
     </row>
     <row r="376" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A376" s="4" t="s">
-        <v>15</v>
+        <v>111</v>
       </c>
       <c r="B376" t="s">
         <v>109</v>
@@ -7024,7 +7035,7 @@
     </row>
     <row r="382" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A382" s="4" t="s">
-        <v>15</v>
+        <v>111</v>
       </c>
       <c r="B382" t="s">
         <v>109</v>
@@ -7113,7 +7124,7 @@
     </row>
     <row r="388" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A388" s="4" t="s">
-        <v>15</v>
+        <v>111</v>
       </c>
       <c r="B388" t="s">
         <v>109</v>
@@ -7202,7 +7213,7 @@
     </row>
     <row r="394" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A394" s="4" t="s">
-        <v>15</v>
+        <v>111</v>
       </c>
       <c r="B394" t="s">
         <v>109</v>
@@ -7291,7 +7302,7 @@
     </row>
     <row r="400" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A400" s="4" t="s">
-        <v>15</v>
+        <v>111</v>
       </c>
       <c r="B400" t="s">
         <v>109</v>
@@ -7380,7 +7391,7 @@
     </row>
     <row r="406" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A406" s="4" t="s">
-        <v>15</v>
+        <v>111</v>
       </c>
       <c r="B406" t="s">
         <v>109</v>
@@ -7469,7 +7480,7 @@
     </row>
     <row r="412" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A412" s="4" t="s">
-        <v>15</v>
+        <v>111</v>
       </c>
       <c r="B412" t="s">
         <v>109</v>
@@ -7558,7 +7569,7 @@
     </row>
     <row r="418" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A418" s="4" t="s">
-        <v>15</v>
+        <v>111</v>
       </c>
       <c r="B418" t="s">
         <v>109</v>
@@ -7647,7 +7658,7 @@
     </row>
     <row r="424" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A424" s="4" t="s">
-        <v>15</v>
+        <v>111</v>
       </c>
       <c r="B424" t="s">
         <v>109</v>
@@ -7755,7 +7766,7 @@
     </row>
     <row r="431" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A431" s="4" t="s">
-        <v>15</v>
+        <v>111</v>
       </c>
       <c r="B431" t="s">
         <v>109</v>
@@ -7843,7 +7854,7 @@
     </row>
     <row r="437" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A437" s="4" t="s">
-        <v>15</v>
+        <v>111</v>
       </c>
       <c r="B437" t="s">
         <v>109</v>
@@ -7932,7 +7943,7 @@
     </row>
     <row r="443" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A443" s="4" t="s">
-        <v>15</v>
+        <v>111</v>
       </c>
       <c r="B443" t="s">
         <v>109</v>
@@ -8021,7 +8032,7 @@
     </row>
     <row r="449" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A449" s="4" t="s">
-        <v>15</v>
+        <v>111</v>
       </c>
       <c r="B449" t="s">
         <v>109</v>
@@ -8110,7 +8121,7 @@
     </row>
     <row r="455" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A455" s="4" t="s">
-        <v>15</v>
+        <v>111</v>
       </c>
       <c r="B455" t="s">
         <v>109</v>
@@ -8199,7 +8210,7 @@
     </row>
     <row r="461" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A461" s="4" t="s">
-        <v>15</v>
+        <v>111</v>
       </c>
       <c r="B461" t="s">
         <v>109</v>
@@ -8288,7 +8299,7 @@
     </row>
     <row r="467" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A467" s="4" t="s">
-        <v>15</v>
+        <v>111</v>
       </c>
       <c r="B467" t="s">
         <v>109</v>
@@ -8377,7 +8388,7 @@
     </row>
     <row r="473" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A473" s="4" t="s">
-        <v>15</v>
+        <v>111</v>
       </c>
       <c r="B473" t="s">
         <v>109</v>
@@ -8466,7 +8477,7 @@
     </row>
     <row r="479" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A479" s="4" t="s">
-        <v>15</v>
+        <v>111</v>
       </c>
       <c r="B479" t="s">
         <v>109</v>
@@ -8555,7 +8566,7 @@
     </row>
     <row r="485" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A485" s="4" t="s">
-        <v>15</v>
+        <v>111</v>
       </c>
       <c r="B485" t="s">
         <v>109</v>
